--- a/web/data/参选名单.xlsx
+++ b/web/data/参选名单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17205"/>
+    <workbookView windowWidth="23325" windowHeight="13245"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,11 +29,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>姓名</t>
   </si>
   <si>
+    <t>等级</t>
+  </si>
+  <si>
     <t>权重</t>
   </si>
   <si>
@@ -52,25 +55,55 @@
     <t>夜澜倾城</t>
   </si>
   <si>
+    <t>魏少卿</t>
+  </si>
+  <si>
+    <t>江云熙</t>
+  </si>
+  <si>
+    <t>琴房</t>
+  </si>
+  <si>
+    <t>之之</t>
+  </si>
+  <si>
+    <t>肥鱼</t>
+  </si>
+  <si>
+    <t>大饼</t>
+  </si>
+  <si>
+    <t>披风</t>
+  </si>
+  <si>
+    <t>司徒</t>
+  </si>
+  <si>
+    <t>詹姆斯</t>
+  </si>
+  <si>
+    <t>小有</t>
+  </si>
+  <si>
     <t>冉冉</t>
   </si>
   <si>
+    <t>小猫咪</t>
+  </si>
+  <si>
+    <t>山雨</t>
+  </si>
+  <si>
+    <t>江无岿</t>
+  </si>
+  <si>
+    <t>释惑</t>
+  </si>
+  <si>
+    <t>竹子</t>
+  </si>
+  <si>
     <t>霖霖</t>
-  </si>
-  <si>
-    <t>小有</t>
-  </si>
-  <si>
-    <t>司徒</t>
-  </si>
-  <si>
-    <t>魏少卿</t>
-  </si>
-  <si>
-    <t>江云</t>
-  </si>
-  <si>
-    <t>琴房</t>
   </si>
 </sst>
 </file>
@@ -236,7 +269,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,6 +278,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -430,7 +475,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -451,6 +496,19 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -577,7 +635,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -589,127 +647,142 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1022,128 +1095,270 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="31.125" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="3" width="31.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" ht="25" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:3">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="6" ht="25" customHeight="1" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+    <row r="7" ht="25" customHeight="1" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" ht="25" customHeight="1" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="25" customHeight="1" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" ht="25" customHeight="1" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="25" customHeight="1" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+    </row>
+    <row r="12" ht="25" customHeight="1" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" ht="25" customHeight="1" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" ht="25" customHeight="1" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="15" ht="25" customHeight="1" spans="1:3">
+      <c r="A15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="16" ht="25" customHeight="1" spans="1:3">
+      <c r="A16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" ht="25" customHeight="1" spans="1:3">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="5">
+        <v>2</v>
+      </c>
+      <c r="C17" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
+    <row r="18" ht="25" customHeight="1" spans="1:3">
+      <c r="A18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="25" customHeight="1" spans="1:3">
+      <c r="A19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="25" customHeight="1" spans="1:3">
+      <c r="A20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="25" customHeight="1" spans="1:3">
+      <c r="A21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1">
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="25" customHeight="1" spans="1:3">
+      <c r="A22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1">
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="25" customHeight="1" spans="1:3">
+      <c r="A23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="C23" s="7">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/web/data/参选名单.xlsx
+++ b/web/data/参选名单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="13245"/>
+    <workbookView windowWidth="27375" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>姓名</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>冉冉</t>
+  </si>
+  <si>
+    <t>生于将熄</t>
   </si>
   <si>
     <t>小猫咪</t>
@@ -475,7 +478,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -496,19 +499,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -635,7 +625,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -647,34 +637,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0">
@@ -759,26 +749,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1095,10 +1073,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1122,43 +1100,43 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>3</v>
       </c>
-      <c r="C2" s="2">
-        <v>100</v>
+      <c r="C2" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>3</v>
       </c>
-      <c r="C3" s="2">
-        <v>2</v>
+      <c r="C3" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
-        <v>50</v>
+      <c r="C4" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1166,10 +1144,10 @@
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1177,21 +1155,21 @@
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2</v>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1199,21 +1177,21 @@
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>3</v>
       </c>
-      <c r="C9" s="2">
-        <v>2</v>
+      <c r="C9" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1221,142 +1199,153 @@
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2">
-        <v>4</v>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="12" ht="25" customHeight="1" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2">
-        <v>3</v>
-      </c>
-      <c r="C12" s="3">
-        <v>4</v>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2</v>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>3</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="2">
         <v>2</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="25" customHeight="1" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2">
         <v>2</v>
       </c>
-      <c r="C16" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" ht="25" customHeight="1" spans="1:3">
-      <c r="A17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="5">
-        <v>2</v>
-      </c>
-      <c r="C17" s="5">
+      <c r="C17" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="18" ht="25" customHeight="1" spans="1:3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="7">
-        <v>1</v>
-      </c>
-      <c r="C18" s="7">
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="19" ht="25" customHeight="1" spans="1:3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="7">
-        <v>1</v>
-      </c>
-      <c r="C19" s="7">
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="20" ht="25" customHeight="1" spans="1:3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="7">
-        <v>1</v>
-      </c>
-      <c r="C20" s="7">
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="21" ht="25" customHeight="1" spans="1:3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="7">
-        <v>1</v>
-      </c>
-      <c r="C21" s="7">
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="22" ht="25" customHeight="1" spans="1:3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="7">
-        <v>1</v>
-      </c>
-      <c r="C22" s="7">
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="23" ht="25" customHeight="1" spans="1:3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="7">
-        <v>1</v>
-      </c>
-      <c r="C23" s="7">
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="25" customHeight="1" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
         <v>0</v>
       </c>
     </row>
